--- a/biology/Botanique/Jardin_James-Joyce/Jardin_James-Joyce.xlsx
+++ b/biology/Botanique/Jardin_James-Joyce/Jardin_James-Joyce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin James-Joyce est un espace vert du 13e arrondissement de Paris, en France.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son entrée principale est située au 7, rue George-Balanchine.
 Il est desservi par la ligne 6 à la station Quai de la Gare.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin porte le nom de l’écrivain irlandais James Joyce (1882-1941).
 </t>
@@ -575,12 +591,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin a été créé en 1998 lors du réaménagement de la ZAC Paris Rive Gauche entre la rue Fernand-Braudel, la rue George-Balanchine, la rue Valery-Larbaud et la rue Abel-Gance. La chapelle Notre-Dame-de-la-Sagesse et son parvis, la place Jean-Vilar, donnent sur le jardin.
-Le jardin a été conçu en 1998 par les paysagistes Michel Desvigne et Christine Dalnoky[1].
-En 2000 a été installée une fontaine d'eau potable conçue par Françoise Persouyre[2].
-Une partie est constituée d'un « jardin de la Mémoire » en souvenir des 14 enfants et 3 adultes, d'origine africaine, morts lors de l'incendie du boulevard Vincent-Auriol en 2005[3].
+Le jardin a été conçu en 1998 par les paysagistes Michel Desvigne et Christine Dalnoky.
+En 2000 a été installée une fontaine d'eau potable conçue par Françoise Persouyre.
+Une partie est constituée d'un « jardin de la Mémoire » en souvenir des 14 enfants et 3 adultes, d'origine africaine, morts lors de l'incendie du boulevard Vincent-Auriol en 2005.
 			Espace botanique.
 			Aire de jeu pour enfants.
 			Fontaine d'eau potable.
